--- a/Data/input.xlsx
+++ b/Data/input.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brahmendrajayaraju/Downloads/actitimeUI-main/Actitimec/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C26D9BA-0541-2349-B024-1C042CEF36D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C81F9-8E9C-3147-859B-6B27B0E5661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2160" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{E41F06D3-9D92-4D4E-AE62-53B378A4AC90}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="15160" activeTab="1" xr2:uid="{E41F06D3-9D92-4D4E-AE62-53B378A4AC90}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="entertimetrack" sheetId="2" r:id="rId2"/>
+    <sheet name="Licenses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,10 +83,10 @@
     <t>454545</t>
   </si>
   <si>
-    <t>actiTIME 2026 Online</t>
-  </si>
-  <si>
-    <t>actiTIME - Enter TT</t>
+    <t>actiTIME 2026</t>
+  </si>
+  <si>
+    <t>actiTIME - Licenses</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/input.xlsx
+++ b/Data/input.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brahmendrajayaraju/Downloads/actitimeUI-main/Actitimec/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C81F9-8E9C-3147-859B-6B27B0E5661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D282ECFA-F845-0843-ADE2-9138540E1954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="15160" activeTab="1" xr2:uid="{E41F06D3-9D92-4D4E-AE62-53B378A4AC90}"/>
+    <workbookView xWindow="30480" yWindow="2360" windowWidth="25600" windowHeight="15160" xr2:uid="{E41F06D3-9D92-4D4E-AE62-53B378A4AC90}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Licenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>actiTIME - Login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>un</t>
   </si>
@@ -47,53 +44,47 @@
     <t>pass</t>
   </si>
   <si>
-    <t>brahmendra.jayaraju67@gmail.com</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
-    <t>9886603727</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>eerrormsg</t>
-  </si>
-  <si>
-    <t>Username or Password is invalid. Please try again.</t>
-  </si>
-  <si>
     <t>edtrte</t>
   </si>
   <si>
     <t>ettete</t>
   </si>
   <si>
-    <t>etetet</t>
-  </si>
-  <si>
-    <t>hthth</t>
-  </si>
-  <si>
-    <t>tytyty</t>
-  </si>
-  <si>
-    <t>454545</t>
-  </si>
-  <si>
-    <t>actiTIME 2026</t>
-  </si>
-  <si>
-    <t>actiTIME - Licenses</t>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>OrangeHRM</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>page text</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>errormsg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +94,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -133,8 +131,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC7CFD6-E5C1-495F-8EA0-F52FAED88809}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,33 +465,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -501,31 +499,31 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AA080947-9630-484E-A757-9B83D08C1340}"/>
+    <hyperlink ref="A2" r:id="rId1" display="brahmendra.jayaraju67@gmail.com" xr:uid="{AA080947-9630-484E-A757-9B83D08C1340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -535,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FA6B56-783A-41B3-9DA7-E10D5F4C65E6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,12 +544,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
